--- a/medicine/Enfance/Paula_Danziger/Paula_Danziger.xlsx
+++ b/medicine/Enfance/Paula_Danziger/Paula_Danziger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paula Danziger (1944-2004) est une femme de lettres américaine, spécialisée en littérature d'enfance et de jeunesse.
-Aux États-Unis, elle est connue pour son roman The Cat Ate My Gymsuit. Elle est morte le 8 juillet 2004 des suites d'une attaque cardiaque[1].
-En France, sa série Amber Brown, illustrée par Tony Ross, est connue sous le titre Lili Graffiti, traduite par Pascale Jusforgues et parue dans la collection Folio Cadet[2].
+Aux États-Unis, elle est connue pour son roman The Cat Ate My Gymsuit. Elle est morte le 8 juillet 2004 des suites d'une attaque cardiaque.
+En France, sa série Amber Brown, illustrée par Tony Ross, est connue sous le titre Lili Graffiti, traduite par Pascale Jusforgues et parue dans la collection Folio Cadet.
 </t>
         </is>
       </c>
@@ -513,11 +525,47 @@
           <t>Œuvre parue en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PS, réponds-moi vite ! (PS, Longer Letter Later), Paris : Gallimard jeunesse Folio junior, 1999  (ISBN 2-07-052254-7)
-Série Lili Graffiti
-Les Aventures de Lili Graffiti
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PS, réponds-moi vite ! (PS, Longer Letter Later), Paris : Gallimard jeunesse Folio junior, 1999  (ISBN 2-07-052254-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paula_Danziger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paula_Danziger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre parue en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Lili Graffiti</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Aventures de Lili Graffiti
 Lili Graffiti (Amber Brown is not a Crayon), Gallimard jeunesse Folio Cadet no341, 2002, Mes premières aventures, 2004
 Les Vacances de Lili Graffiti (You Can't Eat your Chicken Pox, Amber Brown), Gallimard jeunesse Folio Cadet no342, 2003, 2014
 La Rentrée de Lili Graffiti (Amber Brown Goes Fourth), Gallimard jeunesse Folio Cadet no362, 2002
